--- a/Statistics/200m Fri_statistics.xlsx
+++ b/Statistics/200m Fri_statistics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Male_25m" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Male_50m" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Female_25m" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Female_50m" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Male_25m" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Male_50m" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Female_25m" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Female_50m" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1032,12 +1032,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Jon Olav Båtbukt</t>
+          <t>Ole Skuseth</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2.02,90</t>
+          <t>2.02,94</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1045,12 +1045,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>11.09.2016</t>
+          <t>02.12.2023</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1067,12 +1067,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ole Skuseth</t>
+          <t>Jon Olav Båtbukt</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2.02,94</t>
+          <t>2.02,90</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1080,12 +1080,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>02.12.2023</t>
+          <t>11.09.2016</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1312,12 +1312,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sebastian Amundsen</t>
+          <t>Manith Randula Attanapola</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2.04,46</t>
+          <t>2.04,48</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1325,12 +1325,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>30.11.2019</t>
+          <t>27.10.2013</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Levanger</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1347,12 +1347,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Manith Randula Attanapola</t>
+          <t>Sebastian Amundsen</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2.04,48</t>
+          <t>2.04,46</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1360,12 +1360,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>27.10.2013</t>
+          <t>30.11.2019</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Levanger</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1697,12 +1697,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Andreas Aglen Alsos</t>
+          <t>Kristoffer Loeng</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2.08,36</t>
+          <t>2.08,41</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>30.09.2023</t>
+          <t>31.10.2015</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1732,12 +1732,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Kristoffer Loeng</t>
+          <t>Andreas Aglen Alsos</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2.08,41</t>
+          <t>2.08,36</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>31.10.2015</t>
+          <t>30.09.2023</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2117,12 +2117,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Thais Farias Kristiansen</t>
+          <t>Sander Haugan</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2.25,98</t>
+          <t>2.11,54</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>22.06.2019</t>
+          <t>16.11.2019</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2152,12 +2152,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sander Haugan</t>
+          <t>Thais Farias Kristiansen</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2.11,54</t>
+          <t>2.25,98</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -2165,7 +2165,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>16.11.2019</t>
+          <t>22.06.2019</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2222,25 +2222,25 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Solum Ole Peder Uthus</t>
+          <t>Joakim I. Larsen</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2.11,84</t>
+          <t>2.11,99</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>29.09.2018</t>
+          <t>21.06.2008</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Husebybadet</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2257,25 +2257,25 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Joakim I. Larsen</t>
+          <t>Daniel Moen Manriquez</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2.11,99</t>
+          <t>2.12,24</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>21.06.2008</t>
+          <t>22.10.2017</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2292,25 +2292,25 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Daniel Moen Manriquez</t>
+          <t>Tobias Gilbu</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2.12,24</t>
+          <t>2.12,31</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>22.10.2017</t>
+          <t>20.10.2018</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2327,7 +2327,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Tobias Gilbu</t>
+          <t>Henning Andersson</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2340,12 +2340,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>20.10.2018</t>
+          <t>01.11.2014</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2362,20 +2362,20 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Henning Andersson</t>
+          <t>Ask Yifei Baldersheim</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2.12,31</t>
+          <t>2.12,49</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>01.11.2014</t>
+          <t>14.11.2021</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2397,25 +2397,25 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Ask Yifei Baldersheim</t>
+          <t>Sondre Furmyr Johansen</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2.12,49</t>
+          <t>2.12,98</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>14.11.2021</t>
+          <t>23.10.2022</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2432,25 +2432,25 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sondre Furmyr Johansen</t>
+          <t>Jakob Isaksen</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2.12,98</t>
+          <t>2.13,07</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>23.10.2022</t>
+          <t>14.09.2024</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2467,20 +2467,20 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Jakob Isaksen</t>
+          <t>Maxim Sergeevich Gorodkov</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2.13,07</t>
+          <t>2.13,18</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>14.09.2024</t>
+          <t>20.09.2020</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2502,12 +2502,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Maxim Sergeevich Gorodkov</t>
+          <t>Joakim Gjerde</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2.13,18</t>
+          <t>2.13,22</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>20.09.2020</t>
+          <t>18.01.2015</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2537,25 +2537,25 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Joakim Gjerde</t>
+          <t>Istad Ove-Joakim</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2.13,22</t>
+          <t>2.13,84</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>18.01.2015</t>
+          <t>02.12.2006</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2607,25 +2607,25 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Istad Ove-Joakim</t>
+          <t>Vårin Berge Jensås</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2.13,84</t>
+          <t>2.28,67</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>02.12.2006</t>
+          <t>15.03.2019</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2642,25 +2642,25 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Vårin Berge Jensås</t>
+          <t>Margaret Kjøraas</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2.28,67</t>
+          <t>2.28,77</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>15.03.2019</t>
+          <t>04.02.2005</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2677,25 +2677,25 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Margaret Kjøraas</t>
+          <t>Oliver Grøtte Ramstad</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2.28,77</t>
+          <t>2.14,22</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>04.02.2005</t>
+          <t>19.10.2024</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2712,25 +2712,25 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Oliver Grøtte Ramstad</t>
+          <t>Stian Nilsen</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2.14,22</t>
+          <t>2.14,42</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>19.10.2024</t>
+          <t>13.11.2010</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2747,25 +2747,25 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Stian Nilsen</t>
+          <t>Olav Nygård Bergum</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2.14,42</t>
+          <t>2.15,50</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>13.11.2010</t>
+          <t>15.02.2025</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Kolvereid</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2782,25 +2782,25 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Olav Nygård Bergum</t>
+          <t>Einar Woldseth</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2.15,50</t>
+          <t>2.15,98</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>15.02.2025</t>
+          <t>21.06.2025</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Kolvereid</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2817,25 +2817,25 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Einar Woldseth</t>
+          <t>Birk Skaalvik Trelstad</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2.15,98</t>
+          <t>2.16,05</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>15.03.2024</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Levanger</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2852,25 +2852,25 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Birk Skaalvik Trelstad</t>
+          <t>Vegard Skjervold</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2.16,05</t>
+          <t>2.16,14</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>15.03.2024</t>
+          <t>20.10.2018</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Levanger</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2887,25 +2887,25 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Vegard Skjervold</t>
+          <t>Erlend Søderlund</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2.16,14</t>
+          <t>2.16,50</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>20.10.2018</t>
+          <t>06.10.2012</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2922,25 +2922,25 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Erlend Søderlund</t>
+          <t>Alfred Fenstad Høysæter</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2.16,50</t>
+          <t>2.18,16</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>06.10.2012</t>
+          <t>03.09.2021</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -2957,25 +2957,25 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Alfred Fenstad Høysæter</t>
+          <t>Aksel Viken Refseth</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2.18,16</t>
+          <t>2.18,17</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>03.09.2021</t>
+          <t>10.05.2025</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Verdal</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -2992,25 +2992,25 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Aksel Viken Refseth</t>
+          <t>Even Kristoffer Lind Bøckman</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2.18,17</t>
+          <t>2.18,35</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>10.05.2025</t>
+          <t>16.11.2019</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Verdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3027,12 +3027,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Even Kristoffer Lind Bøckman</t>
+          <t>Fredrik Tronvoll</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2.18,35</t>
+          <t>2.18,34</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -3040,12 +3040,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>16.11.2019</t>
+          <t>28.10.2012</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3062,25 +3062,25 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Fredrik Tronvoll</t>
+          <t>Emmelin Munkhaugen</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2.18,34</t>
+          <t>2.33,73</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>28.10.2012</t>
+          <t>07.06.2025</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Porsgrunn</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3097,25 +3097,25 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Emmelin Munkhaugen</t>
+          <t>Vishnu Sattanathan</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2.33,73</t>
+          <t>2.18,64</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>07.06.2025</t>
+          <t>14.09.2024</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Porsgrunn</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3132,20 +3132,20 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Vishnu Sattanathan</t>
+          <t>Håkon Johansen</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2.18,64</t>
+          <t>2.19,14</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>14.09.2024</t>
+          <t>20.05.2006</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3202,20 +3202,20 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Håkon Johansen</t>
+          <t>Ole Andreas Alsos</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2.19,14</t>
+          <t>2.19,32</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>20.05.2006</t>
+          <t>09.04.2016</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3237,20 +3237,20 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Ole Andreas Alsos</t>
+          <t>Bjørn Eimar Endal Sorteberg</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2.19,32</t>
+          <t>2.19,58</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>09.04.2016</t>
+          <t>21.06.2025</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3272,25 +3272,25 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Bjørn Eimar Endal Sorteberg</t>
+          <t>Sigurd Rodal Leirgulen</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2.19,58</t>
+          <t>2.20,15</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>25.10.2020</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3307,25 +3307,25 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Sigurd Rodal Leirgulen</t>
+          <t>Ådne Viken Refseth</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2.20,15</t>
+          <t>2.20,38</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>25.10.2020</t>
+          <t>17.01.2016</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3342,25 +3342,25 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Ådne Viken Refseth</t>
+          <t>Hans Ourson Liem</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2.20,38</t>
+          <t>2.20,67</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>17.01.2016</t>
+          <t>18.03.2022</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Orkanger</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3377,25 +3377,25 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Hans Ourson Liem</t>
+          <t>Lucas Nachappa Muthanna</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2.20,67</t>
+          <t>2.22,30</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>18.03.2022</t>
+          <t>15.02.2025</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Orkanger</t>
+          <t>Kolvereid</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3412,25 +3412,25 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Lucas Nachappa Muthanna</t>
+          <t>Carl Victor Mukisa Nygård</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2.22,30</t>
+          <t>2.22,89</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>15.02.2025</t>
+          <t>23.10.2022</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Kolvereid</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3447,25 +3447,25 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Carl Victor Mukisa Nygård</t>
+          <t>Iris Elise Moen</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2.22,89</t>
+          <t>2.39,54</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>23.10.2022</t>
+          <t>17.04.2021</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3482,12 +3482,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Iris Elise Moen</t>
+          <t>Erin Elizabeth Bachynski</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2.39,54</t>
+          <t>2.39,57</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>17.04.2021</t>
+          <t>08.04.2016</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3517,20 +3517,20 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Erin Elizabeth Bachynski</t>
+          <t>Ludvig Svendsen</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2.39,57</t>
+          <t>2.23,94</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>08.04.2016</t>
+          <t>26.04.2025</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3552,16 +3552,16 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Ludvig Svendsen</t>
+          <t>Edvin Aurstad Bergum</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2.23,94</t>
+          <t>2.24,29</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -3587,20 +3587,20 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Edvin Aurstad Bergum</t>
+          <t>Tamer Saleh Abuzid</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2.24,29</t>
+          <t>2.24,62</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>26.04.2025</t>
+          <t>20.09.2020</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3622,20 +3622,20 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Tamer Saleh Abuzid</t>
+          <t>Kristin Myhr Pettersen</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2.24,62</t>
+          <t>2.40,70</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>20.09.2020</t>
+          <t>02.11.2013</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3657,25 +3657,25 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Kristin Myhr Pettersen</t>
+          <t>Tony Christopher Moflag</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2.40,70</t>
+          <t>2.24,94</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>02.11.2013</t>
+          <t>11.11.2006</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -3692,25 +3692,25 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Tony Christopher Moflag</t>
+          <t>Simon Perssønn Mørseth</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2.24,94</t>
+          <t>2.25,16</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>11.11.2006</t>
+          <t>02.12.2023</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3727,25 +3727,25 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Simon Perssønn Mørseth</t>
+          <t>Bjørn Erik Ystenes</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2.25,16</t>
+          <t>2.25,28</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>02.12.2023</t>
+          <t>28.10.2012</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3762,25 +3762,25 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Bjørn Erik Ystenes</t>
+          <t>Bjarne Forfot</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2.25,28</t>
+          <t>2.25,49</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>28.10.2012</t>
+          <t>16.09.2017</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -4007,12 +4007,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Erlend Skogland</t>
+          <t>David Fjeld</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2.29,93</t>
+          <t>2.29,80</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -4020,12 +4020,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>20.09.2009</t>
+          <t>20.10.2007</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -4042,12 +4042,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>David Fjeld</t>
+          <t>Ingjerd Jepsen Vegge</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2.29,80</t>
+          <t>2.46,40</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -4055,12 +4055,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>20.10.2007</t>
+          <t>12.11.2011</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -4077,12 +4077,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Ingjerd Jepsen Vegge</t>
+          <t>Erlend Skogland</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2.46,40</t>
+          <t>2.29,93</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -4090,12 +4090,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>12.11.2011</t>
+          <t>20.09.2009</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -4917,12 +4917,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Edvard Hamnes Ulriksen</t>
+          <t>Ellen Kristine Eidsmo Hova</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2.40,32</t>
+          <t>2.57,93</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -4930,12 +4930,12 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>14.03.2025</t>
+          <t>26.04.2025</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -4952,12 +4952,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Ellen Kristine Eidsmo Hova</t>
+          <t>Edvard Hamnes Ulriksen</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2.57,93</t>
+          <t>2.40,32</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -4965,12 +4965,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>26.04.2025</t>
+          <t>14.03.2025</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -5022,12 +5022,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Sondre Grimsmo</t>
+          <t>Leander Gisvold Restad</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2.41,60</t>
+          <t>2.41,69</t>
         </is>
       </c>
       <c r="C132" t="n">
@@ -5035,12 +5035,12 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>02.12.2006</t>
+          <t>16.11.2019</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -5092,12 +5092,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Leander Gisvold Restad</t>
+          <t>Sondre Grimsmo</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2.41,69</t>
+          <t>2.41,60</t>
         </is>
       </c>
       <c r="C134" t="n">
@@ -5105,12 +5105,12 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>16.11.2019</t>
+          <t>02.12.2006</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -5967,12 +5967,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Kolbjørn Renhult Skaug</t>
+          <t>Gunhild Furuholt Valle</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>3.04,71</t>
+          <t>3.25,15</t>
         </is>
       </c>
       <c r="C159" t="n">
@@ -5980,12 +5980,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>26.10.2014</t>
+          <t>14.09.2024</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -6002,12 +6002,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Gunhild Furuholt Valle</t>
+          <t>Kolbjørn Renhult Skaug</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>3.25,15</t>
+          <t>3.04,71</t>
         </is>
       </c>
       <c r="C160" t="n">
@@ -6015,12 +6015,12 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>14.09.2024</t>
+          <t>26.10.2014</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -6072,12 +6072,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>William Wale</t>
+          <t>Thomas Paulsen</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>3.07,10</t>
+          <t>3.07,21</t>
         </is>
       </c>
       <c r="C162" t="n">
@@ -6085,12 +6085,12 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>21.06.2014</t>
+          <t>08.02.2014</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -6142,12 +6142,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Thomas Paulsen</t>
+          <t>William Wale</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>3.07,21</t>
+          <t>3.07,10</t>
         </is>
       </c>
       <c r="C164" t="n">
@@ -6155,12 +6155,12 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>08.02.2014</t>
+          <t>21.06.2014</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -6177,12 +6177,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Leo Alexander Farias Kristiansen</t>
+          <t>Vår Kristine Sollien Skar</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>3.08,03</t>
+          <t>3.28,71</t>
         </is>
       </c>
       <c r="C165" t="n">
@@ -6190,7 +6190,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>20.06.2021</t>
+          <t>20.06.2015</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -6212,12 +6212,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Vår Kristine Sollien Skar</t>
+          <t>Leo Alexander Farias Kristiansen</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>3.28,71</t>
+          <t>3.08,03</t>
         </is>
       </c>
       <c r="C166" t="n">
@@ -6225,7 +6225,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>20.06.2015</t>
+          <t>20.06.2021</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -6702,12 +6702,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Bernard Smuk</t>
+          <t>Cornelius Wik</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>3.20,45</t>
+          <t>3.20,86</t>
         </is>
       </c>
       <c r="C180" t="n">
@@ -6715,12 +6715,12 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>14.03.2025</t>
+          <t>14.09.2024</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -6737,12 +6737,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Cornelius Wik</t>
+          <t>Einar Risholt Moen</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>3.20,86</t>
+          <t>3.20,75</t>
         </is>
       </c>
       <c r="C181" t="n">
@@ -6750,12 +6750,12 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>14.09.2024</t>
+          <t>10.11.2012</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -6772,12 +6772,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Einar Risholt Moen</t>
+          <t>Bernard Smuk</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>3.20,75</t>
+          <t>3.20,45</t>
         </is>
       </c>
       <c r="C182" t="n">
@@ -6785,12 +6785,12 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>10.11.2012</t>
+          <t>14.03.2025</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -7227,12 +7227,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Guangzhi Ma</t>
+          <t>Dominic Olav Sollien-Pearn</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>3.40,54</t>
+          <t>3.40,47</t>
         </is>
       </c>
       <c r="C195" t="n">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>20.05.2006</t>
+          <t>20.06.2021</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -7262,12 +7262,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Dominic Olav Sollien-Pearn</t>
+          <t>Guangzhi Ma</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>3.40,47</t>
+          <t>3.40,54</t>
         </is>
       </c>
       <c r="C196" t="n">
@@ -7275,7 +7275,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>20.06.2021</t>
+          <t>20.05.2006</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -7682,12 +7682,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Mikkel Fenstad</t>
+          <t>Ingeborg Vold Kirkvold</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>4.04,78</t>
+          <t>4.31,90</t>
         </is>
       </c>
       <c r="C208" t="n">
@@ -7695,12 +7695,12 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>10.02.2024</t>
+          <t>14.09.2024</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -7717,12 +7717,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Ingeborg Vold Kirkvold</t>
+          <t>Mikkel Fenstad</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>4.31,90</t>
+          <t>4.04,78</t>
         </is>
       </c>
       <c r="C209" t="n">
@@ -7730,12 +7730,12 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>14.09.2024</t>
+          <t>10.02.2024</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -8263,7 +8263,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Solum Ole Peder Uthus</t>
+          <t>Ole Peder Uthus Solum</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -8298,25 +8298,25 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ole Peder Uthus Solum</t>
+          <t>Tor Arne Hegvik</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2.06,61</t>
+          <t>2.06,70</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>16.06.2019</t>
+          <t>28.04.2007</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -8333,25 +8333,25 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Tor Arne Hegvik</t>
+          <t>Brage Wetjen Sigernes</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2.06,70</t>
+          <t>2.06,82</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>28.04.2007</t>
+          <t>16.06.2024</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Ankerskogen svømmehall</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -8368,25 +8368,25 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Brage Wetjen Sigernes</t>
+          <t>Thomas Trøite</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2.06,82</t>
+          <t>2.07,02</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>16.06.2024</t>
+          <t>01.07.2023</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Ankerskogen svømmehall</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -8403,25 +8403,25 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Thomas Trøite</t>
+          <t>Sebastian Amundsen</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2.07,02</t>
+          <t>2.07,27</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>01.07.2023</t>
+          <t>06.04.2019</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -8438,25 +8438,25 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sebastian Amundsen</t>
+          <t>Morten Olden Larsen</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2.07,27</t>
+          <t>2.07,47</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>06.04.2019</t>
+          <t>28.02.2015</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -8473,25 +8473,25 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Morten Olden Larsen</t>
+          <t>Odin Spangen Normann</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2.07,47</t>
+          <t>2.07,56</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>28.02.2015</t>
+          <t>16.06.2013</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -8508,12 +8508,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Odin Spangen Normann</t>
+          <t>Ole Skuseth</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2.07,56</t>
+          <t>2.07,54</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -8521,12 +8521,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>16.06.2013</t>
+          <t>13.04.2024</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -8543,20 +8543,20 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Ole Skuseth</t>
+          <t>Elias Hauge Lien</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2.07,54</t>
+          <t>2.08,06</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>13.04.2024</t>
+          <t>05.04.2025</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -8578,20 +8578,20 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Elias Hauge Lien</t>
+          <t>Andreas Aglen Alsos</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2.08,06</t>
+          <t>2.09,18</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>05.04.2025</t>
+          <t>13.04.2024</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -8613,25 +8613,25 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Andreas Aglen Alsos</t>
+          <t>Thomas Johansen</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2.09,18</t>
+          <t>2.09,35</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>13.04.2024</t>
+          <t>19.04.2015</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -8648,25 +8648,25 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Thomas Johansen</t>
+          <t>Gabriel Rognes Steen</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2.09,35</t>
+          <t>2.10,49</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>19.04.2015</t>
+          <t>05.06.2021</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -8683,25 +8683,25 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Gabriel Rognes Steen</t>
+          <t>Eirik Hakvåg-Sandengen</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2.10,49</t>
+          <t>2.10,74</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>05.06.2021</t>
+          <t>01.07.2023</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -8718,20 +8718,20 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Eirik Hakvåg-Sandengen</t>
+          <t>Kristoffer Loeng</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2.10,74</t>
+          <t>2.11,73</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>01.07.2023</t>
+          <t>01.07.2018</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -8753,25 +8753,25 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Kristoffer Loeng</t>
+          <t>Vetle Henriksen</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2.11,73</t>
+          <t>2.12,73</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>01.07.2018</t>
+          <t>01.05.2011</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -8788,25 +8788,25 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Vetle Henriksen</t>
+          <t>Arnt Martin Ystenes</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2.12,73</t>
+          <t>2.12,92</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>01.05.2011</t>
+          <t>25.04.2010</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -8823,25 +8823,25 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Arnt Martin Ystenes</t>
+          <t>Vårin Berge Jensås</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2.12,92</t>
+          <t>2.27,78</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>25.04.2010</t>
+          <t>01.07.2018</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -8858,25 +8858,25 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Vårin Berge Jensås</t>
+          <t>Tobias Gilbu</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2.27,78</t>
+          <t>2.13,96</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>01.07.2018</t>
+          <t>01.05.2022</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -8893,25 +8893,25 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Tobias Gilbu</t>
+          <t>Finn Øivind Fevang</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2.13,96</t>
+          <t>2.14,29</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>01.05.2022</t>
+          <t>02.07.2006</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -8928,20 +8928,20 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Finn Øivind Fevang</t>
+          <t>Manith Randula Attanapola</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2.14,29</t>
+          <t>2.14,75</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>02.07.2006</t>
+          <t>05.07.2012</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -8963,25 +8963,25 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Manith Randula Attanapola</t>
+          <t>Simen Løvås</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2.14,75</t>
+          <t>2.15,31</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>05.07.2012</t>
+          <t>01.05.2022</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -8998,20 +8998,20 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Simen Løvås</t>
+          <t>Sondre Brunvoll Møllerløkken</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2.15,31</t>
+          <t>2.15,40</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>01.05.2022</t>
+          <t>15.06.2025</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -9033,12 +9033,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sondre Brunvoll Møllerløkken</t>
+          <t>Balder Baarholm</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2.15,40</t>
+          <t>2.15,43</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -9046,12 +9046,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>15.06.2025</t>
+          <t>05.04.2025</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -9068,25 +9068,25 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Balder Baarholm</t>
+          <t>Leo Petter Hauge Sølvberg</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2.15,43</t>
+          <t>2.15,82</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>05.04.2025</t>
+          <t>10.06.2018</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -9103,25 +9103,25 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Leo Petter Hauge Sølvberg</t>
+          <t>Jenny Marandon Natvik</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2.15,82</t>
+          <t>2.31,66</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>10.06.2018</t>
+          <t>19.04.2015</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -9138,25 +9138,25 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Jenny Marandon Natvik</t>
+          <t>Alfred Fenstad Høysæter</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2.31,66</t>
+          <t>2.17,28</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>19.04.2015</t>
+          <t>05.06.2021</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -9173,25 +9173,25 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Alfred Fenstad Høysæter</t>
+          <t>Aksel Viken Refseth</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2.17,28</t>
+          <t>2.17,78</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>05.06.2021</t>
+          <t>28.06.2025</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -9208,25 +9208,25 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Aksel Viken Refseth</t>
+          <t>Thais Farias Kristiansen</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2.17,78</t>
+          <t>2.32,64</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>28.06.2025</t>
+          <t>06.04.2019</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -9243,25 +9243,25 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Thais Farias Kristiansen</t>
+          <t>Sander Haugan</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2.32,64</t>
+          <t>2.18,73</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>06.04.2019</t>
+          <t>29.06.2019</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -9278,25 +9278,25 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sander Haugan</t>
+          <t>Daniel Moen Manriquez</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2.18,73</t>
+          <t>2.19,00</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>29.06.2019</t>
+          <t>27.05.2016</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -9313,25 +9313,25 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Daniel Moen Manriquez</t>
+          <t>Johan Hjelseth Storstad</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2.19,00</t>
+          <t>2.19,10</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>27.05.2016</t>
+          <t>28.06.2019</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -9348,25 +9348,25 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Johan Hjelseth Storstad</t>
+          <t>Simon Moe</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2.19,10</t>
+          <t>2.19,25</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>28.06.2019</t>
+          <t>30.05.2015</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -9383,25 +9383,25 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Simon Moe</t>
+          <t>Erlend Søderlund</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2.19,25</t>
+          <t>2.19,37</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>30.05.2015</t>
+          <t>10.06.2012</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -9418,20 +9418,20 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Erlend Søderlund</t>
+          <t>Joakim Gjerde</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2.19,37</t>
+          <t>2.19,60</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>10.06.2012</t>
+          <t>14.06.2015</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -9453,20 +9453,20 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Joakim Gjerde</t>
+          <t>Sondre Furmyr Johansen</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2.19,60</t>
+          <t>2.19,62</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>14.06.2015</t>
+          <t>01.05.2022</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -9488,25 +9488,25 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sondre Furmyr Johansen</t>
+          <t>Oliver Grøtte Ramstad</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2.19,62</t>
+          <t>2.20,26</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>01.05.2022</t>
+          <t>29.06.2024</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -9523,25 +9523,25 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Oliver Grøtte Ramstad</t>
+          <t>Maxim Sergeevich Gorodkov</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2.20,26</t>
+          <t>2.20,78</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>29.06.2024</t>
+          <t>06.04.2019</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -9558,25 +9558,25 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Maxim Sergeevich Gorodkov</t>
+          <t>Olav Nygård Bergum</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2.20,78</t>
+          <t>2.20,84</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>06.04.2019</t>
+          <t>28.06.2025</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -9593,12 +9593,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Olav Nygård Bergum</t>
+          <t>Emmelin Munkhaugen</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2.20,84</t>
+          <t>2.35,93</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -9606,7 +9606,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>28.06.2025</t>
+          <t>27.06.2025</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -9628,25 +9628,25 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Emmelin Munkhaugen</t>
+          <t>Henning Andersson</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2.35,93</t>
+          <t>2.21,16</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>27.06.2025</t>
+          <t>15.06.2014</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -9663,25 +9663,25 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Henning Andersson</t>
+          <t>Vegard Skjervold</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2.21,16</t>
+          <t>2.21,20</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>15.06.2014</t>
+          <t>01.07.2018</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -9698,25 +9698,25 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Vegard Skjervold</t>
+          <t>Håkon Johansen</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2.21,20</t>
+          <t>2.21,89</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>01.07.2018</t>
+          <t>28.04.2007</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -9733,25 +9733,25 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Håkon Johansen</t>
+          <t>Vishnu Sattanathan</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2.21,89</t>
+          <t>2.23,45</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>28.04.2007</t>
+          <t>29.06.2024</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -9768,25 +9768,25 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Vishnu Sattanathan</t>
+          <t>Carl Victor Mukisa Nygård</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2.23,45</t>
+          <t>2.23,68</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>29.06.2024</t>
+          <t>03.06.2023</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Fredrikstad</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -9803,25 +9803,25 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Carl Victor Mukisa Nygård</t>
+          <t>Ask Yifei Baldersheim</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2.23,68</t>
+          <t>2.23,85</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>03.06.2023</t>
+          <t>01.05.2022</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Fredrikstad</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -9838,25 +9838,25 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Ask Yifei Baldersheim</t>
+          <t>Elian Theodor Kringstad</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2.23,85</t>
+          <t>2.24,25</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>01.05.2022</t>
+          <t>16.06.2024</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Ankerskogen svømmehall</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -9873,25 +9873,25 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Elian Theodor Kringstad</t>
+          <t>Hasith Ransiri Attanapola</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2.24,25</t>
+          <t>2.25,45</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>16.06.2024</t>
+          <t>06.04.2019</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Ankerskogen svømmehall</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -9908,12 +9908,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Hasith Ransiri Attanapola</t>
+          <t>Stian Nilsen</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2.25,45</t>
+          <t>2.25,50</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -9921,12 +9921,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>06.04.2019</t>
+          <t>24.04.2010</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -9943,25 +9943,25 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Stian Nilsen</t>
+          <t>Joakim I. Larsen</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2.25,50</t>
+          <t>2.27,06</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>24.04.2010</t>
+          <t>09.06.2007</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -9978,25 +9978,25 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Joakim I. Larsen</t>
+          <t>Tony Christopher Moflag</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2.27,06</t>
+          <t>2.27,51</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>09.06.2007</t>
+          <t>02.07.2006</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -10013,12 +10013,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Tony Christopher Moflag</t>
+          <t>Storm Olander Øvergård</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2.27,51</t>
+          <t>2.27,59</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -10026,12 +10026,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>02.07.2006</t>
+          <t>15.06.2025</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -10048,20 +10048,20 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Storm Olander Øvergård</t>
+          <t>Iris Elise Moen</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2.27,59</t>
+          <t>2.43,39</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>15.06.2025</t>
+          <t>15.06.2019</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -10083,25 +10083,25 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Iris Elise Moen</t>
+          <t>Lionel Nicolas Weissbrodt</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2.43,39</t>
+          <t>2.27,97</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>15.06.2019</t>
+          <t>03.06.2023</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Fredrikstad</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -10118,25 +10118,25 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Lionel Nicolas Weissbrodt</t>
+          <t>Daniel Stanislaw Czuba</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2.27,97</t>
+          <t>2.28,13</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>03.06.2023</t>
+          <t>15.06.2025</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Fredrikstad</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -10153,20 +10153,20 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Daniel Stanislaw Czuba</t>
+          <t>Bjørn Erik Ystenes</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2.28,13</t>
+          <t>2.28,45</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>15.06.2025</t>
+          <t>10.06.2012</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -10188,20 +10188,20 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Bjørn Erik Ystenes</t>
+          <t>Birk Skaalvik Trelstad</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2.28,45</t>
+          <t>2.29,19</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>10.06.2012</t>
+          <t>01.05.2022</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -10223,20 +10223,20 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Birk Skaalvik Trelstad</t>
+          <t>Lucas Nachappa Muthanna</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2.29,19</t>
+          <t>2.29,35</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>01.05.2022</t>
+          <t>15.06.2025</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -10258,25 +10258,25 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Lucas Nachappa Muthanna</t>
+          <t>Simon Perssønn Mørseth</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2.29,35</t>
+          <t>2.30,50</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>15.06.2025</t>
+          <t>16.06.2024</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Ankerskogen svømmehall</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -10293,25 +10293,25 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Simon Perssønn Mørseth</t>
+          <t>Eilert Juul Wolfgang</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2.30,50</t>
+          <t>2.30,81</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>16.06.2024</t>
+          <t>04.05.2014</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Ankerskogen svømmehall</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -10328,25 +10328,25 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Eilert Juul Wolfgang</t>
+          <t>Bjarne Forfot</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2.30,81</t>
+          <t>2.31,15</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>04.05.2014</t>
+          <t>29.04.2018</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -11806,7 +11806,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G197"/>
+  <dimension ref="A1:G196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13390,7 +13390,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Ingrid Elverum</t>
+          <t>Marthe Eline Waagø-Hansen</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -13403,12 +13403,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>01.11.2014</t>
+          <t>24.03.2007</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -13425,7 +13425,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Marthe Eline Waagø-Hansen</t>
+          <t>Ingrid Elverum</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -13438,12 +13438,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>24.03.2007</t>
+          <t>01.11.2014</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -13670,12 +13670,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Lisa Ling Klauseth Liasjø</t>
+          <t>Torborg Duesten Blokkum</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2.27,96</t>
+          <t>2.27,97</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -13683,12 +13683,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>26.10.2019</t>
+          <t>02.04.2011</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -13705,12 +13705,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Torborg Duesten Blokkum</t>
+          <t>Lisa Ling Klauseth Liasjø</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2.27,97</t>
+          <t>2.27,96</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -13718,12 +13718,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>02.04.2011</t>
+          <t>26.10.2019</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -13950,12 +13950,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Alexandra Contreras Jimenez</t>
+          <t>Camilla Dahle-Øfsti</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2.29,91</t>
+          <t>2.29,87</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -13963,12 +13963,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>15.02.2025</t>
+          <t>06.02.2015</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Kolvereid</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -14020,12 +14020,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Camilla Dahle-Øfsti</t>
+          <t>Alexandra Contreras Jimenez</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2.29,87</t>
+          <t>2.29,91</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -14033,12 +14033,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>06.02.2015</t>
+          <t>15.02.2025</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Kolvereid</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -14335,7 +14335,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Cecilie Solberg Jørgensen</t>
+          <t>Ada Viken Refseth</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -14348,12 +14348,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>29.03.2025</t>
+          <t>26.10.2019</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -14370,7 +14370,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Ada Viken Refseth</t>
+          <t>Cecilie Solberg Jørgensen</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -14383,12 +14383,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>26.10.2019</t>
+          <t>29.03.2025</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -14510,12 +14510,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Annika Krill</t>
+          <t>Oda Sem Austmo</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2.33,21</t>
+          <t>2.33,16</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -14523,12 +14523,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>16.04.2005</t>
+          <t>02.11.2013</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -14545,12 +14545,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Oda Sem Austmo</t>
+          <t>Annika Krill</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2.33,16</t>
+          <t>2.33,21</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -14558,12 +14558,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>02.11.2013</t>
+          <t>16.04.2005</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -15315,12 +15315,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Annelin Breivoll Stenersen</t>
+          <t>Radana Konarikova</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2.41,17</t>
+          <t>2.41,23</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -15328,12 +15328,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>04.02.2005</t>
+          <t>02.04.2011</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -15350,12 +15350,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Radana Konarikova</t>
+          <t>Annelin Breivoll Stenersen</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2.41,23</t>
+          <t>2.41,17</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -15363,12 +15363,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>02.04.2011</t>
+          <t>04.02.2005</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -15420,25 +15420,25 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Bjarne Forfot</t>
+          <t>Helene Marie Haram</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2.25,49</t>
+          <t>2.41,65</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>16.09.2017</t>
+          <t>25.10.2020</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -15455,25 +15455,25 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Helene Marie Haram</t>
+          <t>Anna Svendsen</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2.41,65</t>
+          <t>2.41,81</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>25.10.2020</t>
+          <t>15.03.2019</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -15490,20 +15490,20 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Anna Svendsen</t>
+          <t>Aurora Moen Wannebo</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2.41,81</t>
+          <t>2.42,67</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>15.03.2019</t>
+          <t>27.10.2013</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -15525,25 +15525,25 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Aurora Moen Wannebo</t>
+          <t>Magne Petersen</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2.42,67</t>
+          <t>2.26,67</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>27.10.2013</t>
+          <t>18.01.2015</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -15560,25 +15560,25 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Magne Petersen</t>
+          <t>Erle Kullerud Ytrehus</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2.26,67</t>
+          <t>2.43,90</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>18.01.2015</t>
+          <t>14.03.2025</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -15595,25 +15595,25 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Erle Kullerud Ytrehus</t>
+          <t>Aase Bjørnsdatter Paulsen</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2.43,90</t>
+          <t>2.44,33</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>14.03.2025</t>
+          <t>21.01.2018</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -15630,20 +15630,20 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Aase Bjørnsdatter Paulsen</t>
+          <t>Kirsti Bjørnsdatter Paulsen</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2.44,33</t>
+          <t>2.45,25</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>21.01.2018</t>
+          <t>09.02.2018</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -15665,20 +15665,20 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Kirsti Bjørnsdatter Paulsen</t>
+          <t>Alice Sophie Mittet</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2.45,25</t>
+          <t>2.45,49</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>09.02.2018</t>
+          <t>20.05.2017</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -15700,12 +15700,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Alice Sophie Mittet</t>
+          <t>Guro Rønningen Osmoen</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2.45,49</t>
+          <t>2.45,34</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -15713,7 +15713,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>20.05.2017</t>
+          <t>09.11.2024</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -15735,25 +15735,25 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Guro Rønningen Osmoen</t>
+          <t>Ola vatn Gundersen</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2.45,34</t>
+          <t>2.29,26</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>09.11.2024</t>
+          <t>22.10.2017</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -15770,25 +15770,25 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Ola vatn Gundersen</t>
+          <t>Sofie Hoff</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2.29,26</t>
+          <t>2.45,89</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>22.10.2017</t>
+          <t>14.03.2025</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -15805,25 +15805,25 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Sofie Hoff</t>
+          <t>Silje Dahle</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2.45,89</t>
+          <t>2.46,17</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>14.03.2025</t>
+          <t>15.03.2019</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -15840,25 +15840,25 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Silje Dahle</t>
+          <t>Helle Johnsen Selsås</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2.46,17</t>
+          <t>2.46,34</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>15.03.2019</t>
+          <t>08.12.2024</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -15910,25 +15910,25 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Helle Johnsen Selsås</t>
+          <t>Nicole Kulagina</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2.46,34</t>
+          <t>2.46,73</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>08.12.2024</t>
+          <t>15.03.2025</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -15945,12 +15945,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Nicole Kulagina</t>
+          <t>Sofie Hepsø</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2.46,73</t>
+          <t>2.46,84</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -15958,12 +15958,12 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>15.03.2025</t>
+          <t>10.05.2025</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Verdal</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -15980,25 +15980,25 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Sofie Hepsø</t>
+          <t>Aurora Alexandra Bjordal</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2.46,84</t>
+          <t>2.47,57</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>10.05.2025</t>
+          <t>03.09.2021</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Verdal</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -16015,25 +16015,25 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Aurora Alexandra Bjordal</t>
+          <t>Elisabeth Holm</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2.47,57</t>
+          <t>2.48,20</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>03.09.2021</t>
+          <t>03.04.2005</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -16050,20 +16050,20 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Elisabeth Holm</t>
+          <t>Michaela Josefin Abeleva Barrera</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2.48,20</t>
+          <t>2.48,32</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>03.04.2005</t>
+          <t>26.04.2025</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -16085,25 +16085,25 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Michaela Josefin Abeleva Barrera</t>
+          <t>Ida Fiskaa Barstad</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2.48,32</t>
+          <t>2.48,59</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>26.04.2025</t>
+          <t>24.10.2020</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -16120,20 +16120,20 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Ida Fiskaa Barstad</t>
+          <t>Julie Wiik Arnesen</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2.48,59</t>
+          <t>2.48,63</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>24.10.2020</t>
+          <t>25.10.2020</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -16155,25 +16155,25 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Julie Wiik Arnesen</t>
+          <t>Aida Smalø Moen</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2.48,63</t>
+          <t>2.49,00</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>25.10.2020</t>
+          <t>20.05.2017</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -16190,25 +16190,25 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Aida Smalø Moen</t>
+          <t>Elise Øystrøm Tyvold</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2.49,00</t>
+          <t>2.49,81</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>20.05.2017</t>
+          <t>29.09.2019</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Husebybadet</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -16225,25 +16225,25 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Elise Øystrøm Tyvold</t>
+          <t>Line Steine Bertelsen</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2.49,81</t>
+          <t>2.50,67</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>29.09.2019</t>
+          <t>23.10.2021</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Husebybadet</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -16260,25 +16260,25 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Line Steine Bertelsen</t>
+          <t>Hansine Rindberg Monsø</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2.50,67</t>
+          <t>2.50,82</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>23.10.2021</t>
+          <t>30.11.2024</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -16295,25 +16295,25 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Hansine Rindberg Monsø</t>
+          <t>Sara Skaalvik Trelstad</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2.50,82</t>
+          <t>2.52,41</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>30.11.2024</t>
+          <t>08.02.2014</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -16330,12 +16330,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Sara Skaalvik Trelstad</t>
+          <t>Helle Lundgren</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2.52,41</t>
+          <t>2.52,54</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -16343,12 +16343,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>08.02.2014</t>
+          <t>21.10.2023</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Kolvereid</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -16365,7 +16365,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Helle Lundgren</t>
+          <t>Oline Skjønberg</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -16378,12 +16378,12 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>21.10.2023</t>
+          <t>30.11.2019</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Kolvereid</t>
+          <t>Levanger</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -16400,25 +16400,25 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Oline Skjønberg</t>
+          <t>Izabele Farias Ribeiro</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2.52,54</t>
+          <t>2.52,62</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>30.11.2019</t>
+          <t>06.02.2015</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Levanger</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -16435,25 +16435,25 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Izabele Farias Ribeiro</t>
+          <t>Ina Birgitte Eidsmo Hova</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2.52,62</t>
+          <t>2.53,81</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>06.02.2015</t>
+          <t>26.04.2025</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -16470,25 +16470,25 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Ina Birgitte Eidsmo Hova</t>
+          <t>Selma Strandjord Lillerødvann</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2.53,81</t>
+          <t>2.54,02</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>26.04.2025</t>
+          <t>15.03.2024</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Levanger</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -16505,12 +16505,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Selma Strandjord Lillerødvann</t>
+          <t>Chloe Branlat</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2.54,02</t>
+          <t>2.54,00</t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -16518,12 +16518,12 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>15.03.2024</t>
+          <t>14.03.2025</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Levanger</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -16540,25 +16540,25 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Chloe Branlat</t>
+          <t>Hilde Stene Rygh</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2.54,00</t>
+          <t>2.54,49</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>14.03.2025</t>
+          <t>09.03.2019</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -16575,25 +16575,25 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Hilde Stene Rygh</t>
+          <t>Anahita Koushan</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2.54,49</t>
+          <t>2.55,83</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>09.03.2019</t>
+          <t>30.11.2019</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Levanger</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -16610,25 +16610,25 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Anahita Koushan</t>
+          <t>Pia Helena Wildhagen</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2.55,83</t>
+          <t>2.56,36</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>30.11.2019</t>
+          <t>21.04.2018</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Levanger</t>
+          <t>Husebybadet</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -16645,25 +16645,25 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Pia Helena Wildhagen</t>
+          <t>Elsa Dragsten Wake</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2.56,36</t>
+          <t>2.57,82</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>21.04.2018</t>
+          <t>10.05.2025</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Husebybadet</t>
+          <t>Verdal</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -16680,25 +16680,25 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Elsa Dragsten Wake</t>
+          <t>Arne Martin Einarsrud Rismoen</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2.57,82</t>
+          <t>2.41,23</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>10.05.2025</t>
+          <t>21.06.2025</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Verdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -16715,20 +16715,20 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Arne Martin Einarsrud Rismoen</t>
+          <t>Amalie Gylseth Dahl</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2.41,23</t>
+          <t>3.00,22</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>19.11.2022</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -16750,20 +16750,20 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Amalie Gylseth Dahl</t>
+          <t>Hege Noreng</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>3.00,22</t>
+          <t>3.00,65</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>19.11.2022</t>
+          <t>08.04.2016</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -16785,25 +16785,25 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Hege Noreng</t>
+          <t>Ingrid Lianes</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>3.00,65</t>
+          <t>3.03,56</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>08.04.2016</t>
+          <t>22.05.2009</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -16820,20 +16820,20 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Ingrid Lianes</t>
+          <t>Victoria Dessen</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>3.03,56</t>
+          <t>3.03,69</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>22.05.2009</t>
+          <t>16.04.2005</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -16890,25 +16890,25 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Victoria Dessen</t>
+          <t>Marte Hemmer</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>3.03,69</t>
+          <t>3.06,61</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>16.04.2005</t>
+          <t>03.04.2005</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -16925,16 +16925,16 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Marte Hemmer</t>
+          <t>Gudrun Berg Ildstad</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>3.06,61</t>
+          <t>3.07,31</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -16960,20 +16960,20 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Gudrun Berg Ildstad</t>
+          <t>Sigrid Moen Henriksen</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>3.07,31</t>
+          <t>3.07,51</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>03.04.2005</t>
+          <t>17.03.2023</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -16995,20 +16995,20 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Sigrid Moen Henriksen</t>
+          <t>Sofia Bjørklund Mora</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>3.07,51</t>
+          <t>3.08,54</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>17.03.2023</t>
+          <t>02.11.2013</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -17030,25 +17030,25 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Sofia Bjørklund Mora</t>
+          <t>Amalie Solvoll</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>3.08,54</t>
+          <t>3.10,39</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>02.11.2013</t>
+          <t>27.04.2019</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Husebybadet</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -17065,25 +17065,25 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Amalie Solvoll</t>
+          <t>Julia Tan</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>3.10,39</t>
+          <t>3.12,02</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>27.04.2019</t>
+          <t>20.06.2009</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Husebybadet</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -17100,20 +17100,20 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Julia Tan</t>
+          <t>Elina Arefjord Spangelo</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>3.12,02</t>
+          <t>3.12,29</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>20.06.2009</t>
+          <t>26.04.2025</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -17135,25 +17135,25 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Elina Arefjord Spangelo</t>
+          <t>Madeleine Tran Wæraas</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>3.12,29</t>
+          <t>3.14,54</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>26.04.2025</t>
+          <t>27.10.2019</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -17170,25 +17170,25 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Madeleine Tran Wæraas</t>
+          <t>Ingrid Skye Naustvoll</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>3.14,54</t>
+          <t>3.15,76</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>27.10.2019</t>
+          <t>21.06.2014</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -17205,12 +17205,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Ingrid Skye Naustvoll</t>
+          <t>Lina Sandquist</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>3.15,76</t>
+          <t>3.15,77</t>
         </is>
       </c>
       <c r="C155" t="n">
@@ -17218,7 +17218,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>21.06.2014</t>
+          <t>30.04.2022</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -17240,20 +17240,20 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Lina Sandquist</t>
+          <t>Cathrine Hegle</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>3.15,77</t>
+          <t>3.19,84</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>30.04.2022</t>
+          <t>11.02.2011</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -17275,25 +17275,25 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Cathrine Hegle</t>
+          <t>Emilie Sandvik Gangåssæter</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>3.19,84</t>
+          <t>3.20,07</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>11.02.2011</t>
+          <t>29.09.2019</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -17310,25 +17310,25 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Emilie Sandvik Gangåssæter</t>
+          <t>Marie Wærnes Blom</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>3.20,07</t>
+          <t>3.20,94</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>29.09.2019</t>
+          <t>26.04.2025</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -17345,20 +17345,20 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Marie Wærnes Blom</t>
+          <t>Aurora S. Juel</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>3.20,94</t>
+          <t>3.22,68</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>26.04.2025</t>
+          <t>20.01.2012</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -17380,12 +17380,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Aurora S. Juel</t>
+          <t>Emma Nedeea Hagen</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>3.22,68</t>
+          <t>3.22,40</t>
         </is>
       </c>
       <c r="C160" t="n">
@@ -17393,7 +17393,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>20.01.2012</t>
+          <t>14.11.2021</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -17415,25 +17415,25 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Emma Nedeea Hagen</t>
+          <t>Amelia Roaldseth</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>3.22,40</t>
+          <t>3.24,29</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>14.11.2021</t>
+          <t>06.12.2008</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -17450,25 +17450,25 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Amelia Roaldseth</t>
+          <t>Frida Merethe Norli Eidsvåg</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>3.24,29</t>
+          <t>3.25,91</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>06.12.2008</t>
+          <t>07.11.2015</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -17485,25 +17485,25 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Frida Merethe Norli Eidsvåg</t>
+          <t>Karoline Skjevik</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>3.25,91</t>
+          <t>3.28,67</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>07.11.2015</t>
+          <t>23.02.2008</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -17520,12 +17520,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Karoline Skjevik</t>
+          <t>Tora Tveiten</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>3.28,67</t>
+          <t>3.28,68</t>
         </is>
       </c>
       <c r="C164" t="n">
@@ -17533,7 +17533,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>23.02.2008</t>
+          <t>26.10.2014</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -17555,12 +17555,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Tora Tveiten</t>
+          <t>Camila Dorao</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>3.28,68</t>
+          <t>3.28,55</t>
         </is>
       </c>
       <c r="C165" t="n">
@@ -17568,12 +17568,12 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>26.10.2014</t>
+          <t>16.09.2023</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -17590,25 +17590,25 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Camila Dorao</t>
+          <t>Julia Beatrice Ferreira Kristiansen</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>3.28,55</t>
+          <t>3.29,03</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>16.09.2023</t>
+          <t>03.12.2016</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -17625,25 +17625,25 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Julia Beatrice Ferreira Kristiansen</t>
+          <t>Ronja Emilia Wikström</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>3.29,03</t>
+          <t>3.29,71</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>03.12.2016</t>
+          <t>16.09.2023</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -17660,20 +17660,20 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Ronja Emilia Wikström</t>
+          <t>Lea almaas</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>3.29,71</t>
+          <t>3.30,41</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>16.09.2023</t>
+          <t>20.01.2012</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -17695,25 +17695,25 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Lea almaas</t>
+          <t>Louise Thys</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>3.30,41</t>
+          <t>3.30,73</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>20.01.2012</t>
+          <t>15.03.2025</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -17730,12 +17730,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Louise Thys</t>
+          <t>Sigrid Gylseth Dahl</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>3.30,73</t>
+          <t>3.30,86</t>
         </is>
       </c>
       <c r="C170" t="n">
@@ -17800,25 +17800,25 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Sigrid Gylseth Dahl</t>
+          <t>Else Malin Meidal</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>3.30,86</t>
+          <t>3.31,26</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>15.03.2025</t>
+          <t>28.10.2012</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -17835,25 +17835,25 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Else Malin Meidal</t>
+          <t>Johanne Dahlhaug</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>3.31,26</t>
+          <t>3.31,47</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>28.10.2012</t>
+          <t>05.03.2011</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Verdal</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -17870,25 +17870,25 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Johanne Dahlhaug</t>
+          <t>Anna Fenstad Høysæter</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>3.31,47</t>
+          <t>3.32,51</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>05.03.2011</t>
+          <t>17.01.2020</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Verdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -17905,20 +17905,20 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Anna Fenstad Høysæter</t>
+          <t>Ramona Vutudal</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>3.32,51</t>
+          <t>3.33,44</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>17.01.2020</t>
+          <t>21.06.2008</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -17940,20 +17940,20 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Ramona Vutudal</t>
+          <t>Olivia Hjelmeseth Larsen</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>3.33,44</t>
+          <t>3.35,52</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>21.06.2008</t>
+          <t>19.11.2022</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -17975,25 +17975,25 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Olivia Hjelmeseth Larsen</t>
+          <t>Nicoline Vinje</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>3.35,52</t>
+          <t>3.35,79</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>19.11.2022</t>
+          <t>15.02.2025</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kolvereid</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -18010,25 +18010,25 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Nicoline Vinje</t>
+          <t>Aurora Dahl Bere</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>3.35,79</t>
+          <t>3.37,44</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>15.02.2025</t>
+          <t>06.04.2024</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Kolvereid</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -18045,25 +18045,25 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Aurora Dahl Bere</t>
+          <t>Kaia Winnberg</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>3.37,44</t>
+          <t>3.38,18</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>06.04.2024</t>
+          <t>16.03.2024</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Levanger</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -18080,25 +18080,25 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Kaia Winnberg</t>
+          <t>Charlotte Talseth</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>3.38,18</t>
+          <t>3.39,58</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>16.03.2024</t>
+          <t>26.04.2025</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Levanger</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -18115,25 +18115,25 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Charlotte Talseth</t>
+          <t>Julia Lervold Høffler</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>3.39,58</t>
+          <t>3.43,35</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>26.04.2025</t>
+          <t>05.03.2011</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Verdal</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -18150,25 +18150,25 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Julia Lervold Høffler</t>
+          <t>Nora Grande Bjerkan</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>3.43,35</t>
+          <t>3.49,05</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>05.03.2011</t>
+          <t>15.05.2010</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Verdal</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -18185,25 +18185,25 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Nora Grande Bjerkan</t>
+          <t>Live Hamnes Ulriksen</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>3.49,05</t>
+          <t>3.52,24</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>15.05.2010</t>
+          <t>30.11.2024</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -18220,25 +18220,25 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Live Hamnes Ulriksen</t>
+          <t>Live Furmyr Johansen</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>3.52,24</t>
+          <t>3.54,88</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>30.11.2024</t>
+          <t>20.06.2021</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -18255,12 +18255,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Live Furmyr Johansen</t>
+          <t>Ilaria Kari Cherubini</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>3.54,88</t>
+          <t>3.55,10</t>
         </is>
       </c>
       <c r="C185" t="n">
@@ -18268,12 +18268,12 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>20.06.2021</t>
+          <t>22.02.2025</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -18290,25 +18290,25 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Ilaria Kari Cherubini</t>
+          <t>Alvhilde Ulfnes</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>3.55,10</t>
+          <t>3.59,24</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>22.02.2025</t>
+          <t>18.04.2009</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -18325,25 +18325,25 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Alvhilde Ulfnes</t>
+          <t>Sunniva Eldholm</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>3.59,24</t>
+          <t>4.00,79</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>18.04.2009</t>
+          <t>17.04.2021</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -18360,25 +18360,25 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Sunniva Eldholm</t>
+          <t>Emilie Caitlin Daquilante</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>4.00,79</t>
+          <t>4.01,75</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>17.04.2021</t>
+          <t>28.10.2012</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -18395,25 +18395,25 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Emilie Caitlin Daquilante</t>
+          <t>Jassmitha Ajeethsing</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>4.01,75</t>
+          <t>4.08,51</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>28.10.2012</t>
+          <t>17.01.2020</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -18430,20 +18430,20 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Jassmitha Ajeethsing</t>
+          <t>Eline Nergård Wilhelmsen</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>4.08,51</t>
+          <t>4.10,21</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>17.01.2020</t>
+          <t>08.12.2024</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -18465,25 +18465,25 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Eline Nergård Wilhelmsen</t>
+          <t>Sara Olea  Riseth Moe</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>4.10,21</t>
+          <t>4.10,93</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>08.12.2024</t>
+          <t>30.11.2024</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -18500,25 +18500,25 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Sara Olea  Riseth Moe</t>
+          <t>Aida Sofie Feyzi</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>4.10,93</t>
+          <t>4.14,95</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>30.11.2024</t>
+          <t>29.09.2018</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Husebybadet</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -18535,25 +18535,25 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Aida Sofie Feyzi</t>
+          <t>Vilma Granhus Følstad</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>4.14,95</t>
+          <t>4.27,18</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>29.09.2018</t>
+          <t>10.05.2025</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Husebybadet</t>
+          <t>Verdal</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -18570,25 +18570,25 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Vilma Granhus Følstad</t>
+          <t>KARIANNE HUSBY</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>4.27,18</t>
+          <t>4.28,42</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>10.05.2025</t>
+          <t>13.11.2010</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Verdal</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -18605,20 +18605,20 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>KARIANNE HUSBY</t>
+          <t>Phoebe Thalberg Fagerheim</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>4.28,42</t>
+          <t>4.46,84</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>13.11.2010</t>
+          <t>12.11.2011</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -18640,25 +18640,25 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Phoebe Thalberg Fagerheim</t>
+          <t>Kristina Bragadottir</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>4.46,84</t>
+          <t>7.42,35</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>12.11.2011</t>
+          <t>16.06.2012</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -18667,41 +18667,6 @@
         </is>
       </c>
       <c r="G196" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>Kristina Bragadottir</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>7.42,35</t>
-        </is>
-      </c>
-      <c r="C197" t="n">
-        <v>13</v>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>16.06.2012</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>Trondheim</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>25m</t>
-        </is>
-      </c>
-      <c r="G197" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
@@ -18718,7 +18683,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G115"/>
+  <dimension ref="A1:G114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19081,12 +19046,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Frøydis Vatn Andersen</t>
+          <t>Sigrid Eldholm</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2.21,20</t>
+          <t>2.21,22</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -19094,12 +19059,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>14.04.2018</t>
+          <t>02.07.2022</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -19116,12 +19081,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sigrid Eldholm</t>
+          <t>Frøydis Vatn Andersen</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2.21,22</t>
+          <t>2.21,20</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -19129,12 +19094,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>02.07.2022</t>
+          <t>14.04.2018</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -19536,12 +19501,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Vilde Holan Bye</t>
+          <t>Nora Yian Baldersheim</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2.25,49</t>
+          <t>2.25,47</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -19549,12 +19514,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>28.04.2013</t>
+          <t>02.07.2022</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -19571,12 +19536,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Nora Yian Baldersheim</t>
+          <t>Vilde Holan Bye</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2.25,47</t>
+          <t>2.25,49</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -19584,12 +19549,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>02.07.2022</t>
+          <t>28.04.2013</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -19956,12 +19921,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Ada Viken Refseth</t>
+          <t>Elisabeth Wilmann</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2.31,20</t>
+          <t>2.31,21</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -19969,12 +19934,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>29.06.2019</t>
+          <t>17.04.2016</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -19991,12 +19956,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Elisabeth Wilmann</t>
+          <t>Ada Viken Refseth</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2.31,21</t>
+          <t>2.31,20</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -20004,12 +19969,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>17.04.2016</t>
+          <t>29.06.2019</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -20096,7 +20061,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Oda Sem Austmo</t>
+          <t>Vilde Austmo</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -20109,7 +20074,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>07.07.2013</t>
+          <t>01.07.2018</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -20131,7 +20096,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Vilde Austmo</t>
+          <t>Oda Sem Austmo</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -20144,7 +20109,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>01.07.2018</t>
+          <t>07.07.2013</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -20271,12 +20236,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sissel Furuholt Valle</t>
+          <t>Anita Klungervik</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2.33,60</t>
+          <t>2.33,61</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -20284,7 +20249,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>28.06.2025</t>
+          <t>29.06.2024</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -20306,12 +20271,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Anita Klungervik</t>
+          <t>Sissel Furuholt Valle</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2.33,61</t>
+          <t>2.33,60</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -20319,7 +20284,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>29.06.2024</t>
+          <t>28.06.2025</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -20901,12 +20866,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Hedda Fosseng Traa</t>
+          <t>Emma Lu Tjeldvoll</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2.40,36</t>
+          <t>2.40,30</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -20914,7 +20879,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>02.07.2016</t>
+          <t>02.07.2022</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -20936,12 +20901,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Emma Lu Tjeldvoll</t>
+          <t>Hedda Fosseng Traa</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2.40,30</t>
+          <t>2.40,36</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -20949,7 +20914,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>02.07.2022</t>
+          <t>02.07.2016</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -21391,12 +21356,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Aurora Moen Wannebo</t>
+          <t>Michaela Josefin Abeleva Barrera</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2.45,03</t>
+          <t>2.45,09</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -21404,7 +21369,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>14.06.2014</t>
+          <t>14.06.2025</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -21426,12 +21391,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Michaela Josefin Abeleva Barrera</t>
+          <t>Aurora Moen Wannebo</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2.45,09</t>
+          <t>2.45,03</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -21439,7 +21404,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>14.06.2025</t>
+          <t>14.06.2014</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -21461,20 +21426,20 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Bjarne Forfot</t>
+          <t>Live Killingberg Sandberg</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2.31,15</t>
+          <t>2.47,46</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>29.04.2018</t>
+          <t>31.03.2019</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -21496,25 +21461,25 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Live Killingberg Sandberg</t>
+          <t>Sofie Hoff</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2.47,46</t>
+          <t>2.48,51</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>31.03.2019</t>
+          <t>15.06.2024</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Ankerskogen svømmehall</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -21531,25 +21496,25 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sofie Hoff</t>
+          <t>Elise Øystrøm Tyvold</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2.48,51</t>
+          <t>2.49,32</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>15.06.2024</t>
+          <t>15.06.2019</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Ankerskogen svømmehall</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -21566,20 +21531,20 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Elise Øystrøm Tyvold</t>
+          <t>Elsa Dragsten Wake</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2.49,32</t>
+          <t>2.50,34</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>15.06.2019</t>
+          <t>14.06.2025</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -21601,16 +21566,16 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Elsa Dragsten Wake</t>
+          <t>Nicole Kulagina</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2.50,34</t>
+          <t>2.50,84</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -21636,25 +21601,25 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Nicole Kulagina</t>
+          <t>Emre Vold Kirkvold</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2.50,84</t>
+          <t>2.36,31</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>14.06.2025</t>
+          <t>16.06.2024</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Ankerskogen svømmehall</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -21671,25 +21636,25 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Emre Vold Kirkvold</t>
+          <t>Julie Wiik Arnesen</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2.36,31</t>
+          <t>2.53,15</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>16.06.2024</t>
+          <t>15.06.2019</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Ankerskogen svømmehall</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -21706,25 +21671,25 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Julie Wiik Arnesen</t>
+          <t>Renata Csonka</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2.53,15</t>
+          <t>2.53,55</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>15.06.2019</t>
+          <t>15.06.2024</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Ankerskogen svømmehall</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -21741,16 +21706,16 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Renata Csonka</t>
+          <t>Selma Strandjord Lillerødvann</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2.53,55</t>
+          <t>2.53,81</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -21776,25 +21741,25 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Selma Strandjord Lillerødvann</t>
+          <t>Magne Petersen</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2.53,81</t>
+          <t>2.38,09</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>15.06.2024</t>
+          <t>04.07.2013</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Ankerskogen svømmehall</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -21811,25 +21776,25 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Magne Petersen</t>
+          <t>Ina Birgitte Eidsmo Hova</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2.38,09</t>
+          <t>2.55,90</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>04.07.2013</t>
+          <t>14.06.2025</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -21846,20 +21811,20 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Ina Birgitte Eidsmo Hova</t>
+          <t>Aase Bjørnsdatter Paulsen</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2.55,90</t>
+          <t>2.56,04</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>14.06.2025</t>
+          <t>11.06.2016</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -21881,25 +21846,25 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Aase Bjørnsdatter Paulsen</t>
+          <t>Hanne Søyseth</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2.56,04</t>
+          <t>2.59,56</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>11.06.2016</t>
+          <t>19.04.2015</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -21916,25 +21881,25 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Hanne Søyseth</t>
+          <t>Ingrid Johansen</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2.59,56</t>
+          <t>3.00,03</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>19.04.2015</t>
+          <t>02.07.2006</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -21951,25 +21916,25 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Ingrid Johansen</t>
+          <t>Anna Svendsen</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>3.00,03</t>
+          <t>3.00,48</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>02.07.2006</t>
+          <t>16.06.2019</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -21986,20 +21951,20 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Anna Svendsen</t>
+          <t>Sofia Bjørklund Mora</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>3.00,48</t>
+          <t>3.03,30</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>16.06.2019</t>
+          <t>14.06.2014</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -22021,25 +21986,25 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Sofia Bjørklund Mora</t>
+          <t>Eirill Straum</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>3.03,30</t>
+          <t>3.07,61</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>14.06.2014</t>
+          <t>27.04.2014</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -22056,12 +22021,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Eirill Straum</t>
+          <t>Mona Høysæter Fenstad</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>3.07,61</t>
+          <t>3.07,58</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -22069,12 +22034,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>27.04.2014</t>
+          <t>10.06.2018</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -22091,20 +22056,20 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Mona Høysæter Fenstad</t>
+          <t>Helene Marie Haram</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>3.07,58</t>
+          <t>3.08,11</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>10.06.2018</t>
+          <t>16.06.2019</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -22126,16 +22091,16 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Helene Marie Haram</t>
+          <t>Susanne Kolloen</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>3.08,11</t>
+          <t>3.08,45</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -22161,20 +22126,20 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Susanne Kolloen</t>
+          <t>Victoria Dessen</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>3.08,45</t>
+          <t>3.09,32</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>16.06.2019</t>
+          <t>11.06.2005</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -22231,25 +22196,25 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Victoria Dessen</t>
+          <t>Rebekka Wangberg</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>3.09,32</t>
+          <t>3.09,97</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>11.06.2005</t>
+          <t>13.04.2013</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -22266,25 +22231,25 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Rebekka Wangberg</t>
+          <t>Ida Fiskaa Barstad</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>3.09,97</t>
+          <t>3.15,19</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>13.04.2013</t>
+          <t>15.06.2019</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -22301,20 +22266,20 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Ida Fiskaa Barstad</t>
+          <t>Diana Stafsnes Califano</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>3.15,19</t>
+          <t>3.16,65</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>15.06.2019</t>
+          <t>10.06.2017</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -22336,20 +22301,20 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Diana Stafsnes Califano</t>
+          <t>Madeleine Tran Wæraas</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>3.16,65</t>
+          <t>3.22,09</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>10.06.2017</t>
+          <t>15.06.2019</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -22371,20 +22336,20 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Madeleine Tran Wæraas</t>
+          <t>Elina Arefjord Spangelo</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>3.22,09</t>
+          <t>3.22,66</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>15.06.2019</t>
+          <t>15.06.2025</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -22406,25 +22371,25 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Elina Arefjord Spangelo</t>
+          <t>Ingrid Skye Naustvoll</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>3.22,66</t>
+          <t>3.25,63</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>15.06.2025</t>
+          <t>13.04.2013</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -22441,20 +22406,20 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Ingrid Skye Naustvoll</t>
+          <t>Aurora Alexandra Bjordal</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>3.25,63</t>
+          <t>3.25,93</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>13.04.2013</t>
+          <t>29.04.2018</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -22476,25 +22441,25 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Aurora Alexandra Bjordal</t>
+          <t>Marie Wærnes Blom</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>3.25,93</t>
+          <t>3.26,81</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>29.04.2018</t>
+          <t>15.06.2025</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -22511,20 +22476,20 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Marie Wærnes Blom</t>
+          <t>Frida Pauline Busch</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>3.26,81</t>
+          <t>3.28,16</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>15.06.2025</t>
+          <t>15.06.2019</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -22546,25 +22511,25 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Frida Pauline Busch</t>
+          <t>Tora Tveiten</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>3.28,16</t>
+          <t>3.31,27</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>15.06.2019</t>
+          <t>27.04.2014</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -22581,25 +22546,25 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Tora Tveiten</t>
+          <t>Sigrid Moen Henriksen</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>3.31,27</t>
+          <t>3.37,64</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>27.04.2014</t>
+          <t>30.04.2022</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -22616,20 +22581,20 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Sigrid Moen Henriksen</t>
+          <t>Sigrid Gylseth Dahl</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>3.37,64</t>
+          <t>3.43,84</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>30.04.2022</t>
+          <t>14.06.2025</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -22651,25 +22616,25 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Sigrid Gylseth Dahl</t>
+          <t>Sofie Havig</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>3.43,84</t>
+          <t>3.51,80</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>14.06.2025</t>
+          <t>29.04.2006</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -22686,25 +22651,25 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Sofie Havig</t>
+          <t>Arne Martin Einarsrud Rismoen</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>3.51,80</t>
+          <t>3.55,26</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>29.04.2006</t>
+          <t>15.06.2019</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -22713,41 +22678,6 @@
         </is>
       </c>
       <c r="G114" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Arne Martin Einarsrud Rismoen</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>3.55,26</t>
-        </is>
-      </c>
-      <c r="C115" t="n">
-        <v>81</v>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>15.06.2019</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>Hamar</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>50m</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
